--- a/TestData/Loads.xlsx
+++ b/TestData/Loads.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CustomizeGrid" sheetId="3" r:id="rId1"/>
@@ -593,7 +593,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,7 +725,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -822,9 +824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/TestData/Loads.xlsx
+++ b/TestData/Loads.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CustomizeGrid" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="53">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -145,15 +145,9 @@
     <t>ChanRoger625831</t>
   </si>
   <si>
-    <t>ChanDriver625831</t>
-  </si>
-  <si>
     <t>Driver</t>
   </si>
   <si>
-    <t>ORGIN WEIGHT</t>
-  </si>
-  <si>
     <t>DESTINATION WEIGHt</t>
   </si>
   <si>
@@ -170,6 +164,18 @@
   </si>
   <si>
     <t>Added new load successfully</t>
+  </si>
+  <si>
+    <t>New Day</t>
+  </si>
+  <si>
+    <t>Karthik</t>
+  </si>
+  <si>
+    <t>ORIGIN WEIGHT</t>
+  </si>
+  <si>
+    <t>Loads_TC003</t>
   </si>
 </sst>
 </file>
@@ -559,7 +565,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -573,7 +579,7 @@
         <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -590,10 +596,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +683,7 @@
         <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -685,7 +691,7 @@
         <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -712,7 +718,42 @@
         <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -723,10 +764,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,10 +818,10 @@
         <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
@@ -791,7 +832,7 @@
         <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2">
         <v>5000</v>
@@ -805,12 +846,54 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -824,7 +907,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -869,7 +954,7 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>5</v>
@@ -1095,7 +1180,7 @@
         <v>18</v>
       </c>
       <c r="L6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M6" t="s">
         <v>36</v>

--- a/TestData/Loads.xlsx
+++ b/TestData/Loads.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="CustomizeGrid" sheetId="3" r:id="rId1"/>
     <sheet name="Add Load" sheetId="1" r:id="rId2"/>
     <sheet name="Edit Load" sheetId="4" r:id="rId3"/>
     <sheet name="View Load" sheetId="2" r:id="rId4"/>
+    <sheet name="Duplicate Load" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="61">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -142,9 +143,6 @@
     <t>Roger</t>
   </si>
   <si>
-    <t>ChanRoger625831</t>
-  </si>
-  <si>
     <t>Driver</t>
   </si>
   <si>
@@ -176,6 +174,33 @@
   </si>
   <si>
     <t>Loads_TC003</t>
+  </si>
+  <si>
+    <t>Loads_TC004</t>
+  </si>
+  <si>
+    <t>Johnny</t>
+  </si>
+  <si>
+    <t>Invoice #;Status</t>
+  </si>
+  <si>
+    <t>Number of Copy</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>Test Status</t>
+  </si>
+  <si>
+    <t>Record Dulicated Successfully</t>
+  </si>
+  <si>
+    <t>Submitted</t>
+  </si>
+  <si>
+    <t>Paid</t>
   </si>
 </sst>
 </file>
@@ -219,10 +244,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,9 +553,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -565,7 +593,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -579,12 +607,40 @@
         <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -599,7 +655,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,7 +739,7 @@
         <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -691,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -718,21 +774,21 @@
         <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
@@ -753,7 +809,7 @@
         <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -764,10 +820,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,10 +874,10 @@
         <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
@@ -832,7 +888,7 @@
         <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2">
         <v>5000</v>
@@ -846,10 +902,10 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
@@ -857,13 +913,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
@@ -871,10 +927,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2">
         <v>5000</v>
@@ -885,15 +941,57 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>52</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="D11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -905,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,7 +1052,7 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>5</v>
@@ -1115,7 +1213,7 @@
         <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
         <v>30</v>
@@ -1159,7 +1257,7 @@
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
         <v>30</v>
@@ -1180,16 +1278,146 @@
         <v>18</v>
       </c>
       <c r="L6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M6" t="s">
         <v>36</v>
       </c>
       <c r="N6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TestData/Loads.xlsx
+++ b/TestData/Loads.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CustomizeGrid" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="61">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -553,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,6 +644,34 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -652,10 +680,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B5" sqref="B5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,6 +840,41 @@
         <v>47</v>
       </c>
     </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -823,7 +886,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1328,6 +1391,50 @@
         <v>35</v>
       </c>
       <c r="N7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" t="s">
         <v>31</v>
       </c>
     </row>

--- a/TestData/Loads.xlsx
+++ b/TestData/Loads.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CustomizeGrid" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="69">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Corn</t>
   </si>
   <si>
-    <t>0.25</t>
-  </si>
-  <si>
     <t>Bushels</t>
   </si>
   <si>
@@ -201,6 +198,33 @@
   </si>
   <si>
     <t>Paid</t>
+  </si>
+  <si>
+    <t>Loads_TC005</t>
+  </si>
+  <si>
+    <t>Load Date;Shipper Contact;Carrier Name;Status;Origin;Destination;Rate;Rate UOM;Commodity;Ready to Submit</t>
+  </si>
+  <si>
+    <t>Testcontact</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>1.37</t>
+  </si>
+  <si>
+    <t>1.44</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>0.11</t>
   </si>
 </sst>
 </file>
@@ -553,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +617,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -604,10 +628,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -618,10 +642,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -632,10 +656,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -646,10 +670,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -660,15 +684,29 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -680,10 +718,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,7 +746,7 @@
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -717,13 +755,13 @@
         <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>2</v>
@@ -749,33 +787,33 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -784,68 +822,68 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
       <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s">
         <v>39</v>
       </c>
-      <c r="J3" t="s">
-        <v>40</v>
-      </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
       <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
         <v>39</v>
       </c>
-      <c r="J4" t="s">
-        <v>40</v>
-      </c>
       <c r="K4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -854,25 +892,60 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
       <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
         <v>39</v>
       </c>
-      <c r="J5" t="s">
-        <v>40</v>
-      </c>
       <c r="K5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
         <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -886,7 +959,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B3" sqref="B3:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,10 +976,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -923,139 +996,139 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
         <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2">
         <v>5000</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2">
         <v>5000</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2">
         <v>5000</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1066,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,7 +1164,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -1100,22 +1173,22 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>5</v>
@@ -1141,37 +1214,37 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
         <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1185,37 +1258,37 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" t="s">
         <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
       </c>
       <c r="K3" t="s">
         <v>18</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1229,42 +1302,42 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
         <v>19</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
       </c>
       <c r="K4" t="s">
         <v>18</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -1273,42 +1346,42 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
         <v>39</v>
       </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
       <c r="I5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
         <v>19</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
       </c>
       <c r="K5" t="s">
         <v>18</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -1317,86 +1390,86 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
         <v>39</v>
       </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
       <c r="I6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" t="s">
         <v>19</v>
-      </c>
-      <c r="J6" t="s">
-        <v>20</v>
       </c>
       <c r="K6" t="s">
         <v>18</v>
       </c>
       <c r="L6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
         <v>39</v>
       </c>
-      <c r="H7" t="s">
-        <v>40</v>
-      </c>
       <c r="I7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" t="s">
         <v>19</v>
-      </c>
-      <c r="J7" t="s">
-        <v>20</v>
       </c>
       <c r="K7" t="s">
         <v>18</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -1405,37 +1478,81 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
         <v>39</v>
       </c>
-      <c r="H8" t="s">
-        <v>40</v>
-      </c>
       <c r="I8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" t="s">
         <v>19</v>
-      </c>
-      <c r="J8" t="s">
-        <v>20</v>
       </c>
       <c r="K8" t="s">
         <v>18</v>
       </c>
       <c r="L8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N8" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1466,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -1478,49 +1595,49 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Loads.xlsx
+++ b/TestData/Loads.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CustomizeGrid" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="73">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -225,13 +225,26 @@
   </si>
   <si>
     <t>0.11</t>
+  </si>
+  <si>
+    <t>Alaska_1006053950</t>
+  </si>
+  <si>
+    <t>Alaska_1006055219</t>
+  </si>
+  <si>
+    <t>Alaska_1006060329</t>
+  </si>
+  <si>
+    <t>Alaska_1006061652</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -585,11 +598,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="94.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -720,16 +733,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="18.28515625" customWidth="1"/>
-    <col min="11" max="11" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="10" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -964,11 +977,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1139,18 +1152,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="18.28515625" customWidth="1"/>
-    <col min="14" max="14" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="13" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -1531,7 +1544,7 @@
         <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="H9" t="s">
         <v>39</v>
@@ -1552,6 +1565,50 @@
         <v>34</v>
       </c>
       <c r="N9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1570,12 +1627,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">

--- a/TestData/Loads.xlsx
+++ b/TestData/Loads.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="73">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -227,16 +227,16 @@
     <t>0.11</t>
   </si>
   <si>
-    <t>Alaska_1006053950</t>
-  </si>
-  <si>
     <t>Alaska_1006055219</t>
   </si>
   <si>
-    <t>Alaska_1006060329</t>
-  </si>
-  <si>
     <t>Alaska_1006061652</t>
+  </si>
+  <si>
+    <t>Alaska_1007102917</t>
+  </si>
+  <si>
+    <t>Alaska_1007104040</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1155,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,7 +1368,7 @@
         <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="H5" t="s">
         <v>39</v>
@@ -1412,7 +1412,7 @@
         <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="H6" t="s">
         <v>39</v>
@@ -1544,7 +1544,7 @@
         <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s">
         <v>39</v>
@@ -1588,7 +1588,7 @@
         <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10" t="s">
         <v>39</v>

--- a/TestData/Loads.xlsx
+++ b/TestData/Loads.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="73">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -233,10 +233,10 @@
     <t>Alaska_1006061652</t>
   </si>
   <si>
-    <t>Alaska_1007102917</t>
-  </si>
-  <si>
-    <t>Alaska_1007104040</t>
+    <t>Alaska_1007013802</t>
+  </si>
+  <si>
+    <t>Alaska_1007021748</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1155,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/Loads.xlsx
+++ b/TestData/Loads.xlsx
@@ -12,13 +12,14 @@
     <sheet name="Edit Load" sheetId="4" r:id="rId3"/>
     <sheet name="View Load" sheetId="2" r:id="rId4"/>
     <sheet name="Duplicate Load" sheetId="5" r:id="rId5"/>
+    <sheet name="ViewPDF" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="82">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -233,18 +234,44 @@
     <t>Alaska_1006061652</t>
   </si>
   <si>
-    <t>Alaska_1007013802</t>
-  </si>
-  <si>
-    <t>Alaska_1007021748</t>
+    <t>Alaska_1007032257</t>
+  </si>
+  <si>
+    <t>Loads_TC006</t>
+  </si>
+  <si>
+    <t>DOWNLOAD</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>Download Successfully</t>
+  </si>
+  <si>
+    <t>Email sent Successfully</t>
+  </si>
+  <si>
+    <t>1.45</t>
+  </si>
+  <si>
+    <t>Alaska_1007044711</t>
+  </si>
+  <si>
+    <t>.xlsx</t>
+  </si>
+  <si>
+    <t>.csv</t>
+  </si>
+  <si>
+    <t>Returned</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,19 +617,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="94.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="94.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -720,6 +747,20 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -731,18 +772,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="10" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="10" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -958,6 +999,41 @@
         <v>39</v>
       </c>
       <c r="K6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -969,19 +1045,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1141,6 +1217,48 @@
         <v>42</v>
       </c>
       <c r="D11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1152,18 +1270,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="13" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="13" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -1368,7 +1486,7 @@
         <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s">
         <v>39</v>
@@ -1412,7 +1530,7 @@
         <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H6" t="s">
         <v>39</v>
@@ -1609,6 +1727,138 @@
         <v>34</v>
       </c>
       <c r="N10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1627,12 +1877,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1701,4 +1951,74 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/Loads.xlsx
+++ b/TestData/Loads.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="86">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -180,9 +180,6 @@
     <t>Johnny</t>
   </si>
   <si>
-    <t>Invoice #;Status</t>
-  </si>
-  <si>
     <t>Number of Copy</t>
   </si>
   <si>
@@ -228,12 +225,6 @@
     <t>0.11</t>
   </si>
   <si>
-    <t>Alaska_1006055219</t>
-  </si>
-  <si>
-    <t>Alaska_1006061652</t>
-  </si>
-  <si>
     <t>Alaska_1007032257</t>
   </si>
   <si>
@@ -265,6 +256,27 @@
   </si>
   <si>
     <t>Returned</t>
+  </si>
+  <si>
+    <t>Loads_TC007</t>
+  </si>
+  <si>
+    <t>1.46</t>
+  </si>
+  <si>
+    <t>Alaska_1008013008</t>
+  </si>
+  <si>
+    <t>Alaska_1008013951</t>
+  </si>
+  <si>
+    <t>Load Date;Status;Invoice #</t>
+  </si>
+  <si>
+    <t>Alaska_1008022017</t>
+  </si>
+  <si>
+    <t>Alaska_1008045254</t>
   </si>
 </sst>
 </file>
@@ -617,16 +629,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="94.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="110.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -685,7 +697,7 @@
         <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -699,7 +711,7 @@
         <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -713,7 +725,7 @@
         <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -727,7 +739,7 @@
         <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -738,10 +750,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
         <v>60</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -752,15 +764,29 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -772,10 +798,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,7 +873,7 @@
         <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
         <v>19</v>
@@ -882,7 +908,7 @@
         <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H3" t="s">
         <v>19</v>
@@ -917,7 +943,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H4" t="s">
         <v>19</v>
@@ -952,7 +978,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H5" t="s">
         <v>19</v>
@@ -969,7 +995,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
@@ -981,13 +1007,13 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H6" t="s">
         <v>19</v>
@@ -1004,7 +1030,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
         <v>47</v>
@@ -1022,7 +1048,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s">
         <v>19</v>
@@ -1034,6 +1060,41 @@
         <v>39</v>
       </c>
       <c r="K7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1222,7 +1283,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
@@ -1236,7 +1297,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
         <v>49</v>
@@ -1250,7 +1311,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
         <v>41</v>
@@ -1270,10 +1331,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,7 +1421,7 @@
         <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
         <v>19</v>
@@ -1389,7 +1450,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
         <v>31</v>
@@ -1404,7 +1465,7 @@
         <v>22</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -1433,7 +1494,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
         <v>31</v>
@@ -1448,7 +1509,7 @@
         <v>22</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
@@ -1477,7 +1538,7 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
         <v>47</v>
@@ -1486,13 +1547,13 @@
         <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s">
         <v>39</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
@@ -1521,22 +1582,22 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s">
         <v>39</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J6" t="s">
         <v>19</v>
@@ -1562,10 +1623,10 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
         <v>47</v>
@@ -1574,13 +1635,13 @@
         <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s">
         <v>39</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
         <v>19</v>
@@ -1606,10 +1667,10 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
         <v>47</v>
@@ -1618,13 +1679,13 @@
         <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s">
         <v>39</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s">
         <v>19</v>
@@ -1644,7 +1705,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -1653,22 +1714,22 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
         <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s">
         <v>39</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J9" t="s">
         <v>19</v>
@@ -1688,7 +1749,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -1697,7 +1758,7 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
         <v>47</v>
@@ -1706,13 +1767,13 @@
         <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s">
         <v>39</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J10" t="s">
         <v>19</v>
@@ -1732,16 +1793,16 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
         <v>47</v>
@@ -1750,13 +1811,13 @@
         <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s">
         <v>39</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J11" t="s">
         <v>19</v>
@@ -1776,31 +1837,31 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
         <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H12" t="s">
         <v>39</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s">
         <v>19</v>
@@ -1820,31 +1881,31 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
         <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H13" t="s">
         <v>39</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s">
         <v>19</v>
@@ -1859,6 +1920,50 @@
         <v>35</v>
       </c>
       <c r="N13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1890,10 +1995,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -1902,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1916,7 +2021,7 @@
         <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1927,10 +2032,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1941,10 +2046,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1992,30 +2097,30 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
         <v>72</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Loads.xlsx
+++ b/TestData/Loads.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="CustomizeGrid" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="85">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -148,9 +148,6 @@
   </si>
   <si>
     <t>5000</t>
-  </si>
-  <si>
-    <t>Load Date;Shipper;Shipper Contact;Carrier Name;Status;Origin;Destination;Rate;Rate UOM;Commodity;Ready to Submit</t>
   </si>
   <si>
     <t>Ready to submit</t>
@@ -631,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,7 +666,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -683,7 +680,7 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -694,10 +691,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -708,10 +705,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -722,10 +719,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -736,10 +733,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -750,10 +747,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
         <v>59</v>
-      </c>
-      <c r="B8" t="s">
-        <v>60</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -764,10 +761,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -778,10 +775,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -873,7 +870,7 @@
         <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
         <v>19</v>
@@ -885,7 +882,7 @@
         <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -893,7 +890,7 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -908,7 +905,7 @@
         <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" t="s">
         <v>19</v>
@@ -920,21 +917,21 @@
         <v>39</v>
       </c>
       <c r="K3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -943,7 +940,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" t="s">
         <v>19</v>
@@ -955,15 +952,15 @@
         <v>39</v>
       </c>
       <c r="K4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -978,7 +975,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5" t="s">
         <v>19</v>
@@ -990,15 +987,15 @@
         <v>39</v>
       </c>
       <c r="K5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -1007,13 +1004,13 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" t="s">
         <v>19</v>
@@ -1025,15 +1022,15 @@
         <v>39</v>
       </c>
       <c r="K6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -1048,7 +1045,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s">
         <v>19</v>
@@ -1060,15 +1057,15 @@
         <v>39</v>
       </c>
       <c r="K7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -1083,7 +1080,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s">
         <v>19</v>
@@ -1095,7 +1092,7 @@
         <v>39</v>
       </c>
       <c r="K8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1163,7 +1160,7 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -1174,7 +1171,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2">
         <v>5000</v>
@@ -1199,13 +1196,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
@@ -1213,10 +1210,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2">
         <v>5000</v>
@@ -1227,7 +1224,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
@@ -1241,13 +1238,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
@@ -1255,10 +1252,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2">
         <v>5000</v>
@@ -1269,7 +1266,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
         <v>41</v>
@@ -1283,13 +1280,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
         <v>28</v>
@@ -1297,10 +1294,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2">
         <v>5000</v>
@@ -1311,7 +1308,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
         <v>41</v>
@@ -1333,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,7 +1377,7 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>5</v>
@@ -1421,7 +1418,7 @@
         <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J2" t="s">
         <v>19</v>
@@ -1465,7 +1462,7 @@
         <v>22</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -1509,7 +1506,7 @@
         <v>22</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
@@ -1541,19 +1538,19 @@
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s">
         <v>39</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
@@ -1585,19 +1582,19 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s">
         <v>39</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
         <v>19</v>
@@ -1606,7 +1603,7 @@
         <v>18</v>
       </c>
       <c r="L6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M6" t="s">
         <v>35</v>
@@ -1617,7 +1614,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -1629,19 +1626,19 @@
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s">
         <v>39</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J7" t="s">
         <v>19</v>
@@ -1661,7 +1658,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -1673,19 +1670,19 @@
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H8" t="s">
         <v>39</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
         <v>19</v>
@@ -1705,7 +1702,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -1717,19 +1714,19 @@
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H9" t="s">
         <v>39</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J9" t="s">
         <v>19</v>
@@ -1749,7 +1746,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -1761,19 +1758,19 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s">
         <v>39</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J10" t="s">
         <v>19</v>
@@ -1793,7 +1790,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -1805,19 +1802,19 @@
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
         <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s">
         <v>39</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s">
         <v>19</v>
@@ -1837,7 +1834,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -1849,19 +1846,19 @@
         <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H12" t="s">
         <v>39</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s">
         <v>19</v>
@@ -1870,7 +1867,7 @@
         <v>18</v>
       </c>
       <c r="L12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M12" t="s">
         <v>35</v>
@@ -1881,7 +1878,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -1893,19 +1890,19 @@
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H13" t="s">
         <v>39</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J13" t="s">
         <v>19</v>
@@ -1914,7 +1911,7 @@
         <v>18</v>
       </c>
       <c r="L13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M13" t="s">
         <v>35</v>
@@ -1925,7 +1922,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -1937,7 +1934,7 @@
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
         <v>29</v>
@@ -1949,7 +1946,7 @@
         <v>39</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J14" t="s">
         <v>19</v>
@@ -1995,10 +1992,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -2007,12 +2004,12 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -2021,35 +2018,35 @@
         <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2097,30 +2094,30 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
         <v>69</v>
       </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Loads.xlsx
+++ b/TestData/Loads.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CustomizeGrid" sheetId="3" r:id="rId1"/>
@@ -628,7 +628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -797,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,7 +1331,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/Loads.xlsx
+++ b/TestData/Loads.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CustomizeGrid" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="86">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>Alaska_1008045254</t>
+  </si>
+  <si>
+    <t>Alaska_1009121956</t>
   </si>
 </sst>
 </file>
@@ -797,7 +800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1330,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1937,10 +1940,10 @@
         <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s">
         <v>39</v>

--- a/TestData/Loads.xlsx
+++ b/TestData/Loads.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CustomizeGrid" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="83">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -174,116 +174,108 @@
     <t>Loads_TC004</t>
   </si>
   <si>
+    <t>Number of Copy</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>Test Status</t>
+  </si>
+  <si>
+    <t>Record Dulicated Successfully</t>
+  </si>
+  <si>
+    <t>Submitted</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>Loads_TC005</t>
+  </si>
+  <si>
+    <t>Load Date;Shipper Contact;Carrier Name;Status;Origin;Destination;Rate;Rate UOM;Commodity;Ready to Submit</t>
+  </si>
+  <si>
+    <t>Testcontact</t>
+  </si>
+  <si>
+    <t>1.37</t>
+  </si>
+  <si>
+    <t>1.44</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>Loads_TC006</t>
+  </si>
+  <si>
+    <t>DOWNLOAD</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>Download Successfully</t>
+  </si>
+  <si>
+    <t>Email sent Successfully</t>
+  </si>
+  <si>
+    <t>1.45</t>
+  </si>
+  <si>
+    <t>.xlsx</t>
+  </si>
+  <si>
+    <t>.csv</t>
+  </si>
+  <si>
+    <t>Loads_TC007</t>
+  </si>
+  <si>
+    <t>1.46</t>
+  </si>
+  <si>
+    <t>Load Date;Status;Invoice #</t>
+  </si>
+  <si>
+    <t>Alaska_1011112039</t>
+  </si>
+  <si>
+    <t>Alaska_1011123601</t>
+  </si>
+  <si>
+    <t>Alaska_1011011342</t>
+  </si>
+  <si>
+    <t>Alaska_1011045734</t>
+  </si>
+  <si>
+    <t>Alaska_1011060702</t>
+  </si>
+  <si>
+    <t>Alaska_1011103938</t>
+  </si>
+  <si>
     <t>Johnny</t>
   </si>
   <si>
-    <t>Number of Copy</t>
-  </si>
-  <si>
-    <t>View</t>
-  </si>
-  <si>
-    <t>Test Status</t>
-  </si>
-  <si>
-    <t>Record Dulicated Successfully</t>
-  </si>
-  <si>
-    <t>Submitted</t>
-  </si>
-  <si>
-    <t>Paid</t>
-  </si>
-  <si>
-    <t>Loads_TC005</t>
-  </si>
-  <si>
-    <t>Load Date;Shipper Contact;Carrier Name;Status;Origin;Destination;Rate;Rate UOM;Commodity;Ready to Submit</t>
-  </si>
-  <si>
-    <t>Testcontact</t>
-  </si>
-  <si>
-    <t>Schedule</t>
-  </si>
-  <si>
-    <t>1.37</t>
-  </si>
-  <si>
-    <t>1.44</t>
-  </si>
-  <si>
-    <t>0.69</t>
-  </si>
-  <si>
-    <t>0.51</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>Alaska_1007032257</t>
-  </si>
-  <si>
-    <t>Loads_TC006</t>
-  </si>
-  <si>
-    <t>DOWNLOAD</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>Download Successfully</t>
-  </si>
-  <si>
-    <t>Email sent Successfully</t>
-  </si>
-  <si>
-    <t>1.45</t>
-  </si>
-  <si>
-    <t>Alaska_1007044711</t>
-  </si>
-  <si>
-    <t>.xlsx</t>
-  </si>
-  <si>
-    <t>.csv</t>
-  </si>
-  <si>
-    <t>Returned</t>
-  </si>
-  <si>
-    <t>Loads_TC007</t>
-  </si>
-  <si>
-    <t>1.46</t>
-  </si>
-  <si>
-    <t>Alaska_1008013008</t>
-  </si>
-  <si>
-    <t>Alaska_1008013951</t>
-  </si>
-  <si>
-    <t>Load Date;Status;Invoice #</t>
-  </si>
-  <si>
-    <t>Alaska_1008022017</t>
-  </si>
-  <si>
-    <t>Alaska_1008045254</t>
-  </si>
-  <si>
-    <t>Alaska_1009121956</t>
+    <t>Alaska_1011110406</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,7 +377,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -420,7 +412,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -637,11 +629,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="110.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="110.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -669,7 +661,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -683,7 +675,7 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -697,7 +689,7 @@
         <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -711,7 +703,7 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -725,7 +717,7 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -739,7 +731,7 @@
         <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -750,10 +742,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
         <v>58</v>
-      </c>
-      <c r="B8" t="s">
-        <v>59</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -764,10 +756,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -778,10 +770,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -800,16 +792,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="10" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="10" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -873,7 +865,7 @@
         <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
         <v>19</v>
@@ -908,7 +900,7 @@
         <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H3" t="s">
         <v>19</v>
@@ -934,7 +926,7 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -943,7 +935,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H4" t="s">
         <v>19</v>
@@ -978,7 +970,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H5" t="s">
         <v>19</v>
@@ -995,7 +987,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
@@ -1007,13 +999,13 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H6" t="s">
         <v>19</v>
@@ -1030,7 +1022,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
         <v>46</v>
@@ -1048,7 +1040,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
         <v>19</v>
@@ -1065,7 +1057,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
@@ -1083,7 +1075,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s">
         <v>19</v>
@@ -1114,11 +1106,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1283,7 +1275,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
@@ -1297,7 +1289,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
         <v>48</v>
@@ -1311,7 +1303,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
         <v>41</v>
@@ -1333,16 +1325,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="13" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="13" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -1421,7 +1413,7 @@
         <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J2" t="s">
         <v>19</v>
@@ -1465,7 +1457,7 @@
         <v>22</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -1509,7 +1501,7 @@
         <v>22</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
@@ -1547,13 +1539,13 @@
         <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s">
         <v>39</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
@@ -1588,16 +1580,16 @@
         <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s">
         <v>39</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J6" t="s">
         <v>19</v>
@@ -1632,16 +1624,16 @@
         <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s">
         <v>39</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J7" t="s">
         <v>19</v>
@@ -1676,16 +1668,16 @@
         <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s">
         <v>39</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J8" t="s">
         <v>19</v>
@@ -1705,7 +1697,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -1720,16 +1712,16 @@
         <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s">
         <v>39</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J9" t="s">
         <v>19</v>
@@ -1749,7 +1741,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -1764,16 +1756,16 @@
         <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s">
         <v>39</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J10" t="s">
         <v>19</v>
@@ -1793,7 +1785,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -1808,16 +1800,16 @@
         <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s">
         <v>39</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J11" t="s">
         <v>19</v>
@@ -1837,7 +1829,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -1852,16 +1844,16 @@
         <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s">
         <v>39</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J12" t="s">
         <v>19</v>
@@ -1881,7 +1873,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -1896,16 +1888,16 @@
         <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s">
         <v>39</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J13" t="s">
         <v>19</v>
@@ -1925,7 +1917,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -1943,13 +1935,13 @@
         <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s">
         <v>39</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J14" t="s">
         <v>19</v>
@@ -1982,12 +1974,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1995,10 +1987,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -2007,7 +1999,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2021,7 +2013,7 @@
         <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2032,10 +2024,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2046,10 +2038,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2068,11 +2060,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2097,30 +2089,30 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
         <v>68</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Loads.xlsx
+++ b/TestData/Loads.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CustomizeGrid" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="88">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -261,21 +261,35 @@
     <t>Alaska_1011060702</t>
   </si>
   <si>
-    <t>Alaska_1011103938</t>
-  </si>
-  <si>
     <t>Johnny</t>
   </si>
   <si>
-    <t>Alaska_1011110406</t>
+    <t>Alaska_1012101412</t>
+  </si>
+  <si>
+    <t>Loads_TC008</t>
+  </si>
+  <si>
+    <t>1.47</t>
+  </si>
+  <si>
+    <t>Loads_TC009</t>
+  </si>
+  <si>
+    <t>1.48</t>
+  </si>
+  <si>
+    <t>Alaska_1011011343</t>
+  </si>
+  <si>
+    <t>Alaska_1011011344</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,7 +391,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -412,7 +426,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -629,11 +643,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="110.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="110.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -790,18 +804,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="10" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="10" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -926,7 +940,7 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1087,6 +1101,76 @@
         <v>39</v>
       </c>
       <c r="K8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1106,11 +1190,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1323,18 +1407,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="13" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="13" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -1627,7 +1711,7 @@
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s">
         <v>39</v>
@@ -1956,6 +2040,94 @@
         <v>34</v>
       </c>
       <c r="N14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" t="s">
+        <v>34</v>
+      </c>
+      <c r="N15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1974,12 +2146,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2060,11 +2232,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">

--- a/TestData/Loads.xlsx
+++ b/TestData/Loads.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="108">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -283,13 +283,74 @@
   </si>
   <si>
     <t>Alaska_1011011344</t>
+  </si>
+  <si>
+    <t>EditShippers_TC002</t>
+  </si>
+  <si>
+    <t>Load Date;Shipper;Shipper Contact;Carrier Name;Status;Origin;Destination;Rate;Rate UOM;Commodity;Ready to Submit</t>
+  </si>
+  <si>
+    <t>ActivateShippers_TC003</t>
+  </si>
+  <si>
+    <t>Changepond</t>
+  </si>
+  <si>
+    <t>NEW SHIPPER</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>CHANGEPOND</t>
+  </si>
+  <si>
+    <t>Alaska_1012035514</t>
+  </si>
+  <si>
+    <t>Alaska_1012065350</t>
+  </si>
+  <si>
+    <t>Alaska_1012071045</t>
+  </si>
+  <si>
+    <t>Alaska_1013100617</t>
+  </si>
+  <si>
+    <t>Alaska_1013102305</t>
+  </si>
+  <si>
+    <t>Alaska_1013102720</t>
+  </si>
+  <si>
+    <t>Alaska_1013103352</t>
+  </si>
+  <si>
+    <t>Alaska_1013105204</t>
+  </si>
+  <si>
+    <t>Alaska_1013113020</t>
+  </si>
+  <si>
+    <t>Alaska_1013120225</t>
+  </si>
+  <si>
+    <t>Alaska_1013121843</t>
+  </si>
+  <si>
+    <t>Alaska_1013123607</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -635,19 +696,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A13" sqref="A13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="110.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="110.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -793,6 +854,62 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
         <v>10</v>
       </c>
     </row>
@@ -804,18 +921,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="10" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="10" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1171,6 +1288,76 @@
         <v>39</v>
       </c>
       <c r="K10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1190,11 +1377,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1407,18 +1594,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="13" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="13" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -1711,7 +1898,7 @@
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="H7" t="s">
         <v>39</v>
@@ -2107,7 +2294,7 @@
         <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H16" t="s">
         <v>39</v>
@@ -2128,6 +2315,94 @@
         <v>34</v>
       </c>
       <c r="N16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2146,12 +2421,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2227,16 +2502,16 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">

--- a/TestData/Loads.xlsx
+++ b/TestData/Loads.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="96">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -264,9 +264,6 @@
     <t>Johnny</t>
   </si>
   <si>
-    <t>Alaska_1012101412</t>
-  </si>
-  <si>
     <t>Loads_TC008</t>
   </si>
   <si>
@@ -282,9 +279,6 @@
     <t>Alaska_1011011343</t>
   </si>
   <si>
-    <t>Alaska_1011011344</t>
-  </si>
-  <si>
     <t>EditShippers_TC002</t>
   </si>
   <si>
@@ -310,36 +304,6 @@
   </si>
   <si>
     <t>Alaska_1012035514</t>
-  </si>
-  <si>
-    <t>Alaska_1012065350</t>
-  </si>
-  <si>
-    <t>Alaska_1012071045</t>
-  </si>
-  <si>
-    <t>Alaska_1013100617</t>
-  </si>
-  <si>
-    <t>Alaska_1013102305</t>
-  </si>
-  <si>
-    <t>Alaska_1013102720</t>
-  </si>
-  <si>
-    <t>Alaska_1013103352</t>
-  </si>
-  <si>
-    <t>Alaska_1013105204</t>
-  </si>
-  <si>
-    <t>Alaska_1013113020</t>
-  </si>
-  <si>
-    <t>Alaska_1013120225</t>
-  </si>
-  <si>
-    <t>Alaska_1013121843</t>
   </si>
   <si>
     <t>Alaska_1013123607</t>
@@ -349,8 +313,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,11 +350,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,16 +667,16 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="110.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="110.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -859,7 +827,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -873,7 +841,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -886,30 +854,30 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -924,15 +892,15 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A11" sqref="A11:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="10" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="10" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1223,7 +1191,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -1241,7 +1209,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s">
         <v>19</v>
@@ -1258,7 +1226,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
         <v>46</v>
@@ -1276,7 +1244,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s">
         <v>19</v>
@@ -1292,72 +1260,72 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="H12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" t="s">
-        <v>94</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="J12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" t="s">
-        <v>94</v>
-      </c>
-      <c r="J12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="K12" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1377,11 +1345,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1597,15 +1565,15 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A17" sqref="A17:N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="13" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="13" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -1898,7 +1866,7 @@
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="H7" t="s">
         <v>39</v>
@@ -2232,7 +2200,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -2250,13 +2218,13 @@
         <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s">
         <v>39</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J15" t="s">
         <v>19</v>
@@ -2276,7 +2244,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -2294,13 +2262,13 @@
         <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H16" t="s">
         <v>39</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
@@ -2319,90 +2287,90 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" t="s">
-        <v>94</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="H18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J17" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="I18" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" t="s">
-        <v>94</v>
-      </c>
-      <c r="H18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J18" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" t="s">
-        <v>34</v>
-      </c>
-      <c r="N18" t="s">
+      <c r="N18" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2421,12 +2389,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2507,11 +2475,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">

--- a/TestData/Loads.xlsx
+++ b/TestData/Loads.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="CustomizeGrid" sheetId="3" r:id="rId1"/>
@@ -420,7 +420,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -455,7 +455,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,8 +703,8 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>58</v>
+      <c r="B2" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -1564,7 +1564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17:N18"/>
     </sheetView>
   </sheetViews>

--- a/TestData/Loads.xlsx
+++ b/TestData/Loads.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -420,7 +420,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -455,7 +455,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -667,7 +667,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,8 +717,8 @@
       <c r="A3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" t="s">
-        <v>58</v>
+      <c r="B3" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>

--- a/TestData/Loads.xlsx
+++ b/TestData/Loads.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CustomizeGrid" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="99">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -195,9 +195,6 @@
     <t>Loads_TC005</t>
   </si>
   <si>
-    <t>Load Date;Shipper Contact;Carrier Name;Status;Origin;Destination;Rate;Rate UOM;Commodity;Ready to Submit</t>
-  </si>
-  <si>
     <t>Testcontact</t>
   </si>
   <si>
@@ -246,21 +243,9 @@
     <t>Load Date;Status;Invoice #</t>
   </si>
   <si>
-    <t>Alaska_1011112039</t>
-  </si>
-  <si>
-    <t>Alaska_1011123601</t>
-  </si>
-  <si>
     <t>Alaska_1011011342</t>
   </si>
   <si>
-    <t>Alaska_1011045734</t>
-  </si>
-  <si>
-    <t>Alaska_1011060702</t>
-  </si>
-  <si>
     <t>Johnny</t>
   </si>
   <si>
@@ -306,14 +291,39 @@
     <t>Alaska_1012035514</t>
   </si>
   <si>
-    <t>Alaska_1013123607</t>
+    <t>Alaska_1019061015</t>
+  </si>
+  <si>
+    <t>Loads_TC0031</t>
+  </si>
+  <si>
+    <t>Alaska_1019072754</t>
+  </si>
+  <si>
+    <t>Alaska_1019074040</t>
+  </si>
+  <si>
+    <t>Alaska_1020104452</t>
+  </si>
+  <si>
+    <t>Alaska_1020023807</t>
+  </si>
+  <si>
+    <t>Alaska_1020025118</t>
+  </si>
+  <si>
+    <t>Alaska_1020031106</t>
+  </si>
+  <si>
+    <t>Alaska_1020040105</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,17 +676,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="110.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="110.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -704,7 +714,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -718,7 +728,7 @@
         <v>37</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -731,8 +741,8 @@
       <c r="A4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
-        <v>58</v>
+      <c r="B4" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -746,7 +756,7 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -759,8 +769,8 @@
       <c r="A6" t="s">
         <v>50</v>
       </c>
-      <c r="B6" t="s">
-        <v>58</v>
+      <c r="B6" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -774,7 +784,7 @@
         <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -787,8 +797,8 @@
       <c r="A8" t="s">
         <v>57</v>
       </c>
-      <c r="B8" t="s">
-        <v>58</v>
+      <c r="B8" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -799,10 +809,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" t="s">
-        <v>58</v>
+        <v>63</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -813,10 +823,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" t="s">
-        <v>58</v>
+        <v>71</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -827,10 +837,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" t="s">
-        <v>58</v>
+        <v>76</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -841,10 +851,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" t="s">
-        <v>58</v>
+        <v>78</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -855,10 +865,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
@@ -869,10 +879,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>9</v>
@@ -889,18 +899,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:K12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="10" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="10" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -964,7 +974,7 @@
         <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" t="s">
         <v>19</v>
@@ -999,7 +1009,7 @@
         <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H3" t="s">
         <v>19</v>
@@ -1024,8 +1034,8 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
-        <v>80</v>
+      <c r="D4" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1034,7 +1044,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
         <v>19</v>
@@ -1069,7 +1079,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
         <v>19</v>
@@ -1098,13 +1108,13 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6" t="s">
         <v>19</v>
@@ -1121,7 +1131,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
         <v>46</v>
@@ -1139,7 +1149,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" t="s">
         <v>19</v>
@@ -1156,7 +1166,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
@@ -1174,7 +1184,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H8" t="s">
         <v>19</v>
@@ -1191,7 +1201,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -1209,7 +1219,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s">
         <v>19</v>
@@ -1226,7 +1236,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
         <v>46</v>
@@ -1244,7 +1254,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s">
         <v>19</v>
@@ -1261,16 +1271,16 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>27</v>
@@ -1279,13 +1289,13 @@
         <v>18</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>39</v>
@@ -1296,7 +1306,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>46</v>
@@ -1305,7 +1315,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>27</v>
@@ -1314,18 +1324,53 @@
         <v>18</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>39</v>
       </c>
       <c r="K12" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1345,11 +1390,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1514,7 +1559,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
@@ -1528,7 +1573,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
         <v>48</v>
@@ -1542,7 +1587,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
         <v>41</v>
@@ -1564,16 +1609,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:N18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="13" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="13" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -1652,7 +1697,7 @@
         <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
         <v>19</v>
@@ -1696,7 +1741,7 @@
         <v>22</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -1740,7 +1785,7 @@
         <v>22</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
@@ -1768,8 +1813,8 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
+      <c r="D5" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="E5" t="s">
         <v>46</v>
@@ -1778,13 +1823,13 @@
         <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="H5" t="s">
         <v>39</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
@@ -1812,8 +1857,8 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
+      <c r="D6" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>46</v>
@@ -1822,13 +1867,13 @@
         <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="H6" t="s">
         <v>39</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J6" t="s">
         <v>19</v>
@@ -1866,13 +1911,13 @@
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H7" t="s">
         <v>39</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J7" t="s">
         <v>19</v>
@@ -1910,13 +1955,13 @@
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H8" t="s">
         <v>39</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J8" t="s">
         <v>19</v>
@@ -1954,13 +1999,13 @@
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="H9" t="s">
         <v>39</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9" t="s">
         <v>19</v>
@@ -1998,13 +2043,13 @@
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="H10" t="s">
         <v>39</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J10" t="s">
         <v>19</v>
@@ -2024,7 +2069,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -2042,13 +2087,13 @@
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="H11" t="s">
         <v>39</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J11" t="s">
         <v>19</v>
@@ -2068,7 +2113,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -2086,13 +2131,13 @@
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="H12" t="s">
         <v>39</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J12" t="s">
         <v>19</v>
@@ -2112,7 +2157,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -2130,13 +2175,13 @@
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="H13" t="s">
         <v>39</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J13" t="s">
         <v>19</v>
@@ -2156,7 +2201,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -2174,13 +2219,13 @@
         <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s">
         <v>39</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J14" t="s">
         <v>19</v>
@@ -2200,7 +2245,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -2218,13 +2263,13 @@
         <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s">
         <v>39</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s">
         <v>19</v>
@@ -2244,7 +2289,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -2262,13 +2307,13 @@
         <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s">
         <v>39</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
@@ -2288,31 +2333,31 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>39</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>19</v>
@@ -2332,13 +2377,13 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>27</v>
@@ -2350,13 +2395,13 @@
         <v>29</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>39</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2389,12 +2434,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2470,16 +2515,16 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2504,30 +2549,30 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" t="s">
-        <v>65</v>
-      </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Loads.xlsx
+++ b/TestData/Loads.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="CustomizeGrid" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="101">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -261,9 +261,6 @@
     <t>1.48</t>
   </si>
   <si>
-    <t>Alaska_1011011343</t>
-  </si>
-  <si>
     <t>EditShippers_TC002</t>
   </si>
   <si>
@@ -288,34 +285,43 @@
     <t>CHANGEPOND</t>
   </si>
   <si>
-    <t>Alaska_1012035514</t>
-  </si>
-  <si>
-    <t>Alaska_1019061015</t>
-  </si>
-  <si>
     <t>Loads_TC0031</t>
   </si>
   <si>
-    <t>Alaska_1019072754</t>
-  </si>
-  <si>
-    <t>Alaska_1019074040</t>
-  </si>
-  <si>
-    <t>Alaska_1020104452</t>
-  </si>
-  <si>
-    <t>Alaska_1020023807</t>
-  </si>
-  <si>
-    <t>Alaska_1020025118</t>
-  </si>
-  <si>
-    <t>Alaska_1020031106</t>
-  </si>
-  <si>
-    <t>Alaska_1020040105</t>
+    <t>Alaska_1020070633</t>
+  </si>
+  <si>
+    <t>Alaska_1020072307</t>
+  </si>
+  <si>
+    <t>Alaska_1020074135</t>
+  </si>
+  <si>
+    <t>Alaska_1020075950</t>
+  </si>
+  <si>
+    <t>Alaska_1020080749</t>
+  </si>
+  <si>
+    <t>Alaska_1020081457</t>
+  </si>
+  <si>
+    <t>Alaska_1020082028</t>
+  </si>
+  <si>
+    <t>Load Date;Shipper Contact;Status;Origin;Destination;Rate;Rate UOM;Commodity;Ready to Submit</t>
+  </si>
+  <si>
+    <t>Alaska_1021103135</t>
+  </si>
+  <si>
+    <t>Alaska_1021103640</t>
+  </si>
+  <si>
+    <t>Alaska_1021105643</t>
+  </si>
+  <si>
+    <t>Alaska_1021111539</t>
   </si>
 </sst>
 </file>
@@ -676,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,7 +720,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -728,7 +734,7 @@
         <v>37</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -742,7 +748,7 @@
         <v>49</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -770,7 +776,7 @@
         <v>50</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -798,7 +804,7 @@
         <v>57</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -812,7 +818,7 @@
         <v>63</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -826,7 +832,7 @@
         <v>71</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -840,7 +846,7 @@
         <v>76</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -854,7 +860,7 @@
         <v>78</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -865,10 +871,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
@@ -879,10 +885,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>9</v>
@@ -1271,16 +1277,16 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>27</v>
@@ -1289,13 +1295,13 @@
         <v>18</v>
       </c>
       <c r="G11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>39</v>
@@ -1306,7 +1312,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>46</v>
@@ -1315,7 +1321,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>27</v>
@@ -1324,13 +1330,13 @@
         <v>18</v>
       </c>
       <c r="G12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>39</v>
@@ -1341,7 +1347,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>46</v>
@@ -1609,8 +1615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1823,7 +1829,7 @@
         <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s">
         <v>39</v>
@@ -1867,7 +1873,7 @@
         <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s">
         <v>39</v>
@@ -1904,14 +1910,14 @@
       <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
-        <v>46</v>
+      <c r="E7" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H7" t="s">
         <v>39</v>
@@ -1948,14 +1954,14 @@
       <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s">
-        <v>46</v>
+      <c r="E8" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H8" t="s">
         <v>39</v>
@@ -1992,14 +1998,14 @@
       <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="E9" t="s">
-        <v>46</v>
+      <c r="E9" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s">
         <v>39</v>
@@ -2036,14 +2042,14 @@
       <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" t="s">
-        <v>46</v>
+      <c r="E10" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H10" t="s">
         <v>39</v>
@@ -2080,8 +2086,8 @@
       <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="E11" t="s">
-        <v>46</v>
+      <c r="E11" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -2124,8 +2130,8 @@
       <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="E12" t="s">
-        <v>46</v>
+      <c r="E12" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
@@ -2168,8 +2174,8 @@
       <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="E13" t="s">
-        <v>46</v>
+      <c r="E13" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
@@ -2212,8 +2218,8 @@
       <c r="D14" t="s">
         <v>22</v>
       </c>
-      <c r="E14" t="s">
-        <v>46</v>
+      <c r="E14" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
@@ -2256,14 +2262,14 @@
       <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="E15" t="s">
-        <v>46</v>
+      <c r="E15" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="H15" t="s">
         <v>39</v>
@@ -2301,13 +2307,13 @@
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H16" t="s">
         <v>39</v>
@@ -2333,31 +2339,31 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>39</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>19</v>
@@ -2377,13 +2383,13 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>27</v>
@@ -2395,13 +2401,13 @@
         <v>29</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>39</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>

--- a/TestData/Loads.xlsx
+++ b/TestData/Loads.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="98">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -264,9 +264,6 @@
     <t>EditShippers_TC002</t>
   </si>
   <si>
-    <t>Load Date;Shipper;Shipper Contact;Carrier Name;Status;Origin;Destination;Rate;Rate UOM;Commodity;Ready to Submit</t>
-  </si>
-  <si>
     <t>ActivateShippers_TC003</t>
   </si>
   <si>
@@ -291,9 +288,6 @@
     <t>Alaska_1020070633</t>
   </si>
   <si>
-    <t>Alaska_1020072307</t>
-  </si>
-  <si>
     <t>Alaska_1020074135</t>
   </si>
   <si>
@@ -306,22 +300,19 @@
     <t>Alaska_1020081457</t>
   </si>
   <si>
-    <t>Alaska_1020082028</t>
-  </si>
-  <si>
-    <t>Load Date;Shipper Contact;Status;Origin;Destination;Rate;Rate UOM;Commodity;Ready to Submit</t>
-  </si>
-  <si>
     <t>Alaska_1021103135</t>
   </si>
   <si>
-    <t>Alaska_1021103640</t>
-  </si>
-  <si>
-    <t>Alaska_1021105643</t>
-  </si>
-  <si>
     <t>Alaska_1021111539</t>
+  </si>
+  <si>
+    <t>Load Date;Shipper;Shipper Contact;Carrier Name;Status;Origin</t>
+  </si>
+  <si>
+    <t>Load Date;Shipper Contact;Carrier Name;Status;Origin;Destination</t>
+  </si>
+  <si>
+    <t>Alaska_1023112244</t>
   </si>
 </sst>
 </file>
@@ -720,7 +711,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -734,7 +725,7 @@
         <v>37</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -873,8 +864,8 @@
       <c r="A13" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>81</v>
+      <c r="B13" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
@@ -885,10 +876,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="4" t="s">
         <v>81</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>9</v>
@@ -1280,13 +1271,13 @@
         <v>80</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>27</v>
@@ -1295,13 +1286,13 @@
         <v>18</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>39</v>
@@ -1312,7 +1303,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>46</v>
@@ -1321,7 +1312,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>27</v>
@@ -1330,13 +1321,13 @@
         <v>18</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>39</v>
@@ -1347,7 +1338,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>46</v>
@@ -1616,7 +1607,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1702,16 +1693,16 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="I2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
@@ -1746,14 +1737,14 @@
       <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
+      <c r="I3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
@@ -1787,19 +1778,19 @@
       <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="H4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M4" t="s">
@@ -1829,21 +1820,21 @@
         <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M5" t="s">
@@ -1873,22 +1864,22 @@
         <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" t="s">
-        <v>44</v>
+        <v>88</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="M6" t="s">
         <v>35</v>
@@ -1917,7 +1908,7 @@
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H7" t="s">
         <v>39</v>
@@ -1961,7 +1952,7 @@
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H8" t="s">
         <v>39</v>
@@ -2005,7 +1996,7 @@
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H9" t="s">
         <v>39</v>
@@ -2049,7 +2040,7 @@
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H10" t="s">
         <v>39</v>
@@ -2093,7 +2084,7 @@
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H11" t="s">
         <v>39</v>
@@ -2137,7 +2128,7 @@
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H12" t="s">
         <v>39</v>
@@ -2181,7 +2172,7 @@
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s">
         <v>39</v>
@@ -2269,7 +2260,7 @@
         <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s">
         <v>39</v>
@@ -2345,31 +2336,31 @@
         <v>16</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>85</v>
+        <v>22</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>22</v>
@@ -2383,13 +2374,13 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>27</v>
@@ -2401,19 +2392,19 @@
         <v>29</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>85</v>
+        <v>22</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>22</v>

--- a/TestData/Loads.xlsx
+++ b/TestData/Loads.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CustomizeGrid" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="97">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -298,9 +298,6 @@
   </si>
   <si>
     <t>Alaska_1020081457</t>
-  </si>
-  <si>
-    <t>Alaska_1021103135</t>
   </si>
   <si>
     <t>Alaska_1021111539</t>
@@ -319,8 +316,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,17 +669,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="110.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="110.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -711,7 +707,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -725,7 +721,7 @@
         <v>37</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -739,7 +735,7 @@
         <v>49</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -767,7 +763,7 @@
         <v>50</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -795,7 +791,7 @@
         <v>57</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -809,7 +805,7 @@
         <v>63</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -823,7 +819,7 @@
         <v>71</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -837,7 +833,7 @@
         <v>76</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -851,7 +847,7 @@
         <v>78</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -865,7 +861,7 @@
         <v>80</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
@@ -879,7 +875,7 @@
         <v>81</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>9</v>
@@ -904,10 +900,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="10" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="10" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1387,11 +1383,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1606,16 +1602,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="13" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="13" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -1902,25 +1898,25 @@
         <v>22</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H7" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" t="s">
-        <v>18</v>
+      <c r="I7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="L7" t="s">
         <v>22</v>
@@ -1946,7 +1942,7 @@
         <v>22</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
@@ -1957,14 +1953,14 @@
       <c r="H8" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" t="s">
-        <v>18</v>
+      <c r="I8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="L8" t="s">
         <v>22</v>
@@ -1990,7 +1986,7 @@
         <v>22</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -2001,14 +1997,14 @@
       <c r="H9" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" t="s">
-        <v>18</v>
+      <c r="I9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="L9" t="s">
         <v>22</v>
@@ -2034,7 +2030,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -2045,14 +2041,14 @@
       <c r="H10" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" t="s">
-        <v>18</v>
+      <c r="I10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="L10" t="s">
         <v>22</v>
@@ -2078,7 +2074,7 @@
         <v>22</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -2089,14 +2085,14 @@
       <c r="H11" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" t="s">
-        <v>18</v>
+      <c r="I11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="L11" t="s">
         <v>22</v>
@@ -2122,7 +2118,7 @@
         <v>22</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
@@ -2133,14 +2129,14 @@
       <c r="H12" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" t="s">
-        <v>18</v>
+      <c r="I12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="L12" t="s">
         <v>44</v>
@@ -2166,7 +2162,7 @@
         <v>22</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
@@ -2177,14 +2173,14 @@
       <c r="H13" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" t="s">
-        <v>18</v>
+      <c r="I13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="L13" t="s">
         <v>44</v>
@@ -2210,7 +2206,7 @@
         <v>22</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
@@ -2221,14 +2217,14 @@
       <c r="H14" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" t="s">
-        <v>18</v>
+      <c r="I14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="L14" t="s">
         <v>22</v>
@@ -2254,7 +2250,7 @@
         <v>22</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
@@ -2265,14 +2261,14 @@
       <c r="H15" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J15" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" t="s">
-        <v>18</v>
+      <c r="I15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="L15" t="s">
         <v>22</v>
@@ -2297,26 +2293,26 @@
       <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E16" t="s">
-        <v>22</v>
+      <c r="E16" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H16" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" t="s">
-        <v>18</v>
+      <c r="I16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="L16" t="s">
         <v>22</v>
@@ -2431,12 +2427,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2517,11 +2513,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">

--- a/TestData/Loads.xlsx
+++ b/TestData/Loads.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="113">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -310,13 +310,62 @@
   </si>
   <si>
     <t>Alaska_1023112244</t>
+  </si>
+  <si>
+    <t>Alaska_1023035405</t>
+  </si>
+  <si>
+    <t>Alaska_1023060946</t>
+  </si>
+  <si>
+    <t>Alaska_1023061443</t>
+  </si>
+  <si>
+    <t>Alaska_1023063437</t>
+  </si>
+  <si>
+    <t>Alaska_1023064114</t>
+  </si>
+  <si>
+    <t>Alaska_1027065715</t>
+  </si>
+  <si>
+    <t>Alaska_1027070545</t>
+  </si>
+  <si>
+    <t>Alaska_1027071111</t>
+  </si>
+  <si>
+    <t>Alaska_1027072328</t>
+  </si>
+  <si>
+    <t>Alaska_1027072725</t>
+  </si>
+  <si>
+    <t>Alaska_1027073122</t>
+  </si>
+  <si>
+    <t>Alaska_1027073538</t>
+  </si>
+  <si>
+    <t>Alaska_1027073940</t>
+  </si>
+  <si>
+    <t>Alaska_1027074802</t>
+  </si>
+  <si>
+    <t>Alaska_1027075331</t>
+  </si>
+  <si>
+    <t>Alaska_1027075810</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -675,11 +724,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="110.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="110.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -900,10 +949,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="10" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="10" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1383,11 +1432,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1608,10 +1657,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="13" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="13" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -1816,7 +1865,7 @@
         <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>22</v>
@@ -1860,7 +1909,7 @@
         <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>22</v>
@@ -1904,7 +1953,7 @@
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="H7" t="s">
         <v>39</v>
@@ -1948,7 +1997,7 @@
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="H8" t="s">
         <v>39</v>
@@ -1992,7 +2041,7 @@
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="H9" t="s">
         <v>39</v>
@@ -2036,7 +2085,7 @@
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="H10" t="s">
         <v>39</v>
@@ -2080,7 +2129,7 @@
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="H11" t="s">
         <v>39</v>
@@ -2124,7 +2173,7 @@
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="H12" t="s">
         <v>39</v>
@@ -2168,7 +2217,7 @@
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="H13" t="s">
         <v>39</v>
@@ -2212,7 +2261,7 @@
         <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="H14" t="s">
         <v>39</v>
@@ -2256,7 +2305,7 @@
         <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="H15" t="s">
         <v>39</v>
@@ -2300,7 +2349,7 @@
         <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="H16" t="s">
         <v>39</v>
@@ -2427,12 +2476,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2513,11 +2562,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">

--- a/TestData/Loads.xlsx
+++ b/TestData/Loads.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="104">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -243,9 +243,6 @@
     <t>Load Date;Status;Invoice #</t>
   </si>
   <si>
-    <t>Alaska_1011011342</t>
-  </si>
-  <si>
     <t>Johnny</t>
   </si>
   <si>
@@ -285,66 +282,21 @@
     <t>Loads_TC0031</t>
   </si>
   <si>
-    <t>Alaska_1020070633</t>
-  </si>
-  <si>
-    <t>Alaska_1020074135</t>
-  </si>
-  <si>
-    <t>Alaska_1020075950</t>
-  </si>
-  <si>
-    <t>Alaska_1020080749</t>
-  </si>
-  <si>
-    <t>Alaska_1020081457</t>
-  </si>
-  <si>
-    <t>Alaska_1021111539</t>
-  </si>
-  <si>
     <t>Load Date;Shipper;Shipper Contact;Carrier Name;Status;Origin</t>
   </si>
   <si>
     <t>Load Date;Shipper Contact;Carrier Name;Status;Origin;Destination</t>
   </si>
   <si>
-    <t>Alaska_1023112244</t>
-  </si>
-  <si>
-    <t>Alaska_1023035405</t>
-  </si>
-  <si>
-    <t>Alaska_1023060946</t>
-  </si>
-  <si>
-    <t>Alaska_1023061443</t>
-  </si>
-  <si>
-    <t>Alaska_1023063437</t>
-  </si>
-  <si>
-    <t>Alaska_1023064114</t>
-  </si>
-  <si>
     <t>Alaska_1027065715</t>
   </si>
   <si>
     <t>Alaska_1027070545</t>
   </si>
   <si>
-    <t>Alaska_1027071111</t>
-  </si>
-  <si>
     <t>Alaska_1027072328</t>
   </si>
   <si>
-    <t>Alaska_1027072725</t>
-  </si>
-  <si>
-    <t>Alaska_1027073122</t>
-  </si>
-  <si>
     <t>Alaska_1027073538</t>
   </si>
   <si>
@@ -358,14 +310,34 @@
   </si>
   <si>
     <t>Alaska_1027075810</t>
+  </si>
+  <si>
+    <t>Mexico_1112072854</t>
+  </si>
+  <si>
+    <t>Mexico_1112073813</t>
+  </si>
+  <si>
+    <t>Field_Mapping_TC001</t>
+  </si>
+  <si>
+    <t>FIELDMAPPING</t>
+  </si>
+  <si>
+    <t>Load #</t>
+  </si>
+  <si>
+    <t>Alaska_1112100357</t>
+  </si>
+  <si>
+    <t>Schedule</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,7 +444,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -507,7 +479,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -716,19 +688,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="110.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="110.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -756,7 +728,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -770,7 +742,7 @@
         <v>37</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -784,7 +756,7 @@
         <v>49</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -812,7 +784,7 @@
         <v>50</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -840,7 +812,7 @@
         <v>57</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -854,7 +826,7 @@
         <v>63</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -868,7 +840,7 @@
         <v>71</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -879,10 +851,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -893,10 +865,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -907,10 +879,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
@@ -921,15 +893,29 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -949,10 +935,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="10" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="10" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1243,7 +1229,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -1261,7 +1247,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s">
         <v>19</v>
@@ -1278,7 +1264,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
         <v>46</v>
@@ -1296,7 +1282,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s">
         <v>19</v>
@@ -1313,16 +1299,16 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>27</v>
@@ -1331,13 +1317,13 @@
         <v>18</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>39</v>
@@ -1348,7 +1334,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>46</v>
@@ -1357,7 +1343,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>27</v>
@@ -1366,13 +1352,13 @@
         <v>18</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>39</v>
@@ -1383,7 +1369,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>46</v>
@@ -1392,7 +1378,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>27</v>
@@ -1424,19 +1410,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1638,6 +1624,20 @@
         <v>42</v>
       </c>
       <c r="D14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1649,18 +1649,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="13" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="13" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -1865,7 +1865,7 @@
         <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>22</v>
@@ -1909,7 +1909,7 @@
         <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>22</v>
@@ -1953,7 +1953,7 @@
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s">
         <v>39</v>
@@ -1997,7 +1997,7 @@
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="H8" t="s">
         <v>39</v>
@@ -2041,7 +2041,7 @@
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s">
         <v>39</v>
@@ -2085,7 +2085,7 @@
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="H10" t="s">
         <v>39</v>
@@ -2129,7 +2129,7 @@
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H11" t="s">
         <v>39</v>
@@ -2173,7 +2173,7 @@
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H12" t="s">
         <v>39</v>
@@ -2217,7 +2217,7 @@
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H13" t="s">
         <v>39</v>
@@ -2261,7 +2261,7 @@
         <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="H14" t="s">
         <v>39</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -2305,7 +2305,7 @@
         <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="H15" t="s">
         <v>39</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -2349,7 +2349,7 @@
         <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="H16" t="s">
         <v>39</v>
@@ -2375,25 +2375,25 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>85</v>
+      <c r="G17" t="s">
+        <v>97</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>22</v>
@@ -2419,13 +2419,13 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>27</v>
@@ -2436,8 +2436,8 @@
       <c r="F18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>85</v>
+      <c r="G18" t="s">
+        <v>98</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>22</v>
@@ -2458,6 +2458,50 @@
         <v>34</v>
       </c>
       <c r="N18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2476,12 +2520,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2562,11 +2606,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">

--- a/TestData/Loads.xlsx
+++ b/TestData/Loads.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CustomizeGrid" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="117">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -331,6 +331,45 @@
   </si>
   <si>
     <t>Schedule</t>
+  </si>
+  <si>
+    <t>LOAD DATE</t>
+  </si>
+  <si>
+    <t>PreviousDate</t>
+  </si>
+  <si>
+    <t>COMMODITY</t>
+  </si>
+  <si>
+    <t>EditLoad_TC001</t>
+  </si>
+  <si>
+    <t>ORIGIN</t>
+  </si>
+  <si>
+    <t>DESTINATION</t>
+  </si>
+  <si>
+    <t>RATE</t>
+  </si>
+  <si>
+    <t>SHIPPERCONTACT</t>
+  </si>
+  <si>
+    <t>UOM</t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>Ammonia</t>
+  </si>
+  <si>
+    <t>Hour(HR)</t>
+  </si>
+  <si>
+    <t>Changep</t>
   </si>
 </sst>
 </file>
@@ -688,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,6 +958,34 @@
         <v>10</v>
       </c>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -927,10 +994,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1402,6 +1469,43 @@
         <v>45</v>
       </c>
     </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1410,10 +1514,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1641,6 +1745,146 @@
         <v>28</v>
       </c>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="8">
+        <v>5000</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1649,10 +1893,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2502,6 +2746,50 @@
         <v>34</v>
       </c>
       <c r="N19" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N20" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2600,8 +2888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/Loads.xlsx
+++ b/TestData/Loads.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CustomizeGrid" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="117">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -363,20 +363,21 @@
     <t>AMOUNT</t>
   </si>
   <si>
-    <t>Ammonia</t>
-  </si>
-  <si>
-    <t>Hour(HR)</t>
-  </si>
-  <si>
-    <t>Changep</t>
+    <t>Alaska_1119115454</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Alaska_1119125540</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -735,11 +736,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="110.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="110.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1002,10 +1003,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="10" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="10" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1516,17 +1517,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1749,7 +1750,7 @@
       <c r="A16" t="s">
         <v>107</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="8" t="s">
         <v>104</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -1763,11 +1764,11 @@
       <c r="A17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="8" t="s">
         <v>106</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>28</v>
@@ -1777,7 +1778,7 @@
       <c r="A18" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="8" t="s">
         <v>108</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -1791,7 +1792,7 @@
       <c r="A19" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="8" t="s">
         <v>109</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -1805,11 +1806,11 @@
       <c r="A20" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C20">
-        <v>2</v>
+      <c r="C20" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>28</v>
@@ -1819,7 +1820,7 @@
       <c r="A21" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="8">
@@ -1833,7 +1834,7 @@
       <c r="A22" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -1847,11 +1848,11 @@
       <c r="A23" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="8" t="s">
         <v>111</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>28</v>
@@ -1861,11 +1862,11 @@
       <c r="A24" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C24" t="s">
-        <v>115</v>
+      <c r="C24" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>28</v>
@@ -1875,7 +1876,7 @@
       <c r="A25" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="8" t="s">
         <v>113</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -1896,15 +1897,15 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:N20"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="13" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="13" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -2754,7 +2755,7 @@
         <v>107</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>22</v>
@@ -2768,8 +2769,8 @@
       <c r="F20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>90</v>
+      <c r="G20" t="s">
+        <v>116</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>39</v>
@@ -2808,12 +2809,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2888,17 +2889,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">

--- a/TestData/Loads.xlsx
+++ b/TestData/Loads.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="CustomizeGrid" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="108">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -288,30 +288,6 @@
     <t>Load Date;Shipper Contact;Carrier Name;Status;Origin;Destination</t>
   </si>
   <si>
-    <t>Alaska_1027065715</t>
-  </si>
-  <si>
-    <t>Alaska_1027070545</t>
-  </si>
-  <si>
-    <t>Alaska_1027072328</t>
-  </si>
-  <si>
-    <t>Alaska_1027073538</t>
-  </si>
-  <si>
-    <t>Alaska_1027073940</t>
-  </si>
-  <si>
-    <t>Alaska_1027074802</t>
-  </si>
-  <si>
-    <t>Alaska_1027075331</t>
-  </si>
-  <si>
-    <t>Alaska_1027075810</t>
-  </si>
-  <si>
     <t>Mexico_1112072854</t>
   </si>
   <si>
@@ -327,9 +303,6 @@
     <t>Load #</t>
   </si>
   <si>
-    <t>Alaska_1112100357</t>
-  </si>
-  <si>
     <t>Schedule</t>
   </si>
   <si>
@@ -363,13 +336,13 @@
     <t>AMOUNT</t>
   </si>
   <si>
-    <t>Alaska_1119115454</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>Alaska_1119125540</t>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>CHN_1215113247</t>
   </si>
 </sst>
 </file>
@@ -730,7 +703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -947,7 +920,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>88</v>
@@ -961,7 +934,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>88</v>
@@ -975,7 +948,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>73</v>
@@ -998,7 +971,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,7 +1084,7 @@
         <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="J3" t="s">
         <v>39</v>
@@ -1145,8 +1118,8 @@
       <c r="H4" t="s">
         <v>19</v>
       </c>
-      <c r="I4" t="s">
-        <v>38</v>
+      <c r="I4" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="J4" t="s">
         <v>39</v>
@@ -1180,8 +1153,8 @@
       <c r="H5" t="s">
         <v>19</v>
       </c>
-      <c r="I5" t="s">
-        <v>38</v>
+      <c r="I5" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="J5" t="s">
         <v>39</v>
@@ -1215,8 +1188,8 @@
       <c r="H6" t="s">
         <v>19</v>
       </c>
-      <c r="I6" t="s">
-        <v>38</v>
+      <c r="I6" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="J6" t="s">
         <v>39</v>
@@ -1250,8 +1223,8 @@
       <c r="H7" t="s">
         <v>19</v>
       </c>
-      <c r="I7" t="s">
-        <v>38</v>
+      <c r="I7" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="J7" t="s">
         <v>39</v>
@@ -1285,8 +1258,8 @@
       <c r="H8" t="s">
         <v>19</v>
       </c>
-      <c r="I8" t="s">
-        <v>38</v>
+      <c r="I8" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="J8" t="s">
         <v>39</v>
@@ -1320,8 +1293,8 @@
       <c r="H9" t="s">
         <v>19</v>
       </c>
-      <c r="I9" t="s">
-        <v>38</v>
+      <c r="I9" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="J9" t="s">
         <v>39</v>
@@ -1355,8 +1328,8 @@
       <c r="H10" t="s">
         <v>19</v>
       </c>
-      <c r="I10" t="s">
-        <v>38</v>
+      <c r="I10" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="J10" t="s">
         <v>39</v>
@@ -1461,7 +1434,7 @@
         <v>19</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>39</v>
@@ -1472,7 +1445,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>46</v>
@@ -1496,7 +1469,7 @@
         <v>19</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>39</v>
@@ -1517,7 +1490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -1734,13 +1707,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>28</v>
@@ -1748,13 +1721,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>28</v>
@@ -1762,10 +1735,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>22</v>
@@ -1776,10 +1749,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>38</v>
@@ -1790,10 +1763,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>81</v>
@@ -1804,13 +1777,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>28</v>
@@ -1818,7 +1791,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>48</v>
@@ -1832,7 +1805,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>41</v>
@@ -1846,10 +1819,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>22</v>
@@ -1860,10 +1833,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>22</v>
@@ -1874,10 +1847,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>22</v>
@@ -1897,7 +1870,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2110,7 +2083,7 @@
         <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>22</v>
@@ -2154,7 +2127,7 @@
         <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>22</v>
@@ -2197,8 +2170,8 @@
       <c r="F7" t="s">
         <v>22</v>
       </c>
-      <c r="G7" t="s">
-        <v>90</v>
+      <c r="G7" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="H7" t="s">
         <v>39</v>
@@ -2241,8 +2214,8 @@
       <c r="F8" t="s">
         <v>22</v>
       </c>
-      <c r="G8" t="s">
-        <v>91</v>
+      <c r="G8" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="H8" t="s">
         <v>39</v>
@@ -2285,8 +2258,8 @@
       <c r="F9" t="s">
         <v>22</v>
       </c>
-      <c r="G9" t="s">
-        <v>92</v>
+      <c r="G9" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="H9" t="s">
         <v>39</v>
@@ -2329,8 +2302,8 @@
       <c r="F10" t="s">
         <v>22</v>
       </c>
-      <c r="G10" t="s">
-        <v>92</v>
+      <c r="G10" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="H10" t="s">
         <v>39</v>
@@ -2373,8 +2346,8 @@
       <c r="F11" t="s">
         <v>22</v>
       </c>
-      <c r="G11" t="s">
-        <v>93</v>
+      <c r="G11" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="H11" t="s">
         <v>39</v>
@@ -2417,8 +2390,8 @@
       <c r="F12" t="s">
         <v>22</v>
       </c>
-      <c r="G12" t="s">
-        <v>93</v>
+      <c r="G12" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="H12" t="s">
         <v>39</v>
@@ -2461,8 +2434,8 @@
       <c r="F13" t="s">
         <v>22</v>
       </c>
-      <c r="G13" t="s">
-        <v>93</v>
+      <c r="G13" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="H13" t="s">
         <v>39</v>
@@ -2505,8 +2478,8 @@
       <c r="F14" t="s">
         <v>22</v>
       </c>
-      <c r="G14" t="s">
-        <v>94</v>
+      <c r="G14" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="H14" t="s">
         <v>39</v>
@@ -2549,8 +2522,8 @@
       <c r="F15" t="s">
         <v>22</v>
       </c>
-      <c r="G15" t="s">
-        <v>95</v>
+      <c r="G15" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="H15" t="s">
         <v>39</v>
@@ -2593,8 +2566,8 @@
       <c r="F16" t="s">
         <v>22</v>
       </c>
-      <c r="G16" t="s">
-        <v>96</v>
+      <c r="G16" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="H16" t="s">
         <v>39</v>
@@ -2638,7 +2611,7 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>22</v>
@@ -2682,7 +2655,7 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>22</v>
@@ -2708,7 +2681,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>16</v>
@@ -2723,10 +2696,10 @@
         <v>46</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G19" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H19" t="s">
         <v>22</v>
@@ -2752,7 +2725,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>22</v>
@@ -2770,7 +2743,7 @@
         <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>39</v>

--- a/TestData/Loads.xlsx
+++ b/TestData/Loads.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="110">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -343,6 +343,12 @@
   </si>
   <si>
     <t>CHN_1215113247</t>
+  </si>
+  <si>
+    <t>CHN_1222114443</t>
+  </si>
+  <si>
+    <t>CHN_1222115323</t>
   </si>
 </sst>
 </file>
@@ -2566,8 +2572,8 @@
       <c r="F16" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>106</v>
+      <c r="G16" t="s">
+        <v>109</v>
       </c>
       <c r="H16" t="s">
         <v>39</v>

--- a/TestData/Loads.xlsx
+++ b/TestData/Loads.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CustomizeGrid" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="117">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -138,9 +138,6 @@
     <t>Alaska</t>
   </si>
   <si>
-    <t>Roger</t>
-  </si>
-  <si>
     <t>Driver</t>
   </si>
   <si>
@@ -288,12 +285,6 @@
     <t>Load Date;Shipper Contact;Carrier Name;Status;Origin;Destination</t>
   </si>
   <si>
-    <t>Mexico_1112072854</t>
-  </si>
-  <si>
-    <t>Mexico_1112073813</t>
-  </si>
-  <si>
     <t>Field_Mapping_TC001</t>
   </si>
   <si>
@@ -342,13 +333,43 @@
     <t>CHN</t>
   </si>
   <si>
-    <t>CHN_1215113247</t>
-  </si>
-  <si>
-    <t>CHN_1222114443</t>
-  </si>
-  <si>
     <t>CHN_1222115323</t>
+  </si>
+  <si>
+    <t>CHN_0101022155</t>
+  </si>
+  <si>
+    <t>CHN_0104041140</t>
+  </si>
+  <si>
+    <t>CHN_0113114059</t>
+  </si>
+  <si>
+    <t>Mexico_0119120548</t>
+  </si>
+  <si>
+    <t>CHN_0128022925</t>
+  </si>
+  <si>
+    <t>Mexico_0129102403</t>
+  </si>
+  <si>
+    <t>CHN_0224121211</t>
+  </si>
+  <si>
+    <t>PUN</t>
+  </si>
+  <si>
+    <t>CHN_0224121827</t>
+  </si>
+  <si>
+    <t>PUN_0224121828</t>
+  </si>
+  <si>
+    <t>CHN_0224123352</t>
+  </si>
+  <si>
+    <t>PUN_0224123353</t>
   </si>
 </sst>
 </file>
@@ -463,7 +484,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -498,7 +519,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -709,7 +730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -747,7 +768,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -761,7 +782,7 @@
         <v>37</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -772,10 +793,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -786,10 +807,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -800,10 +821,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -814,10 +835,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -828,10 +849,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -842,10 +863,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -856,10 +877,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -870,10 +891,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -884,10 +905,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -898,10 +919,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
@@ -912,10 +933,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>9</v>
@@ -926,10 +947,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>9</v>
@@ -940,10 +961,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>9</v>
@@ -954,10 +975,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>9</v>
@@ -976,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,7 +1070,7 @@
         <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
         <v>19</v>
@@ -1061,7 +1082,7 @@
         <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1069,7 +1090,7 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -1084,27 +1105,27 @@
         <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" t="s">
         <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="K3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -1119,27 +1140,27 @@
         <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="J4" t="s">
-        <v>39</v>
+        <v>103</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="K4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -1154,62 +1175,62 @@
         <v>18</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="J5" t="s">
-        <v>39</v>
+        <v>103</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="K5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
         <v>57</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>58</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
         <v>19</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="J6" t="s">
-        <v>39</v>
+        <v>103</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="K6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -1224,27 +1245,27 @@
         <v>18</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H7" t="s">
         <v>19</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="J7" t="s">
-        <v>39</v>
+        <v>103</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="K7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -1259,27 +1280,27 @@
         <v>18</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H8" t="s">
         <v>19</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="J8" t="s">
-        <v>39</v>
+        <v>103</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="K8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1294,27 +1315,27 @@
         <v>18</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s">
         <v>19</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="J9" t="s">
-        <v>39</v>
+        <v>103</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -1329,33 +1350,33 @@
         <v>18</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s">
         <v>19</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="J10" t="s">
-        <v>39</v>
+        <v>103</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>27</v>
@@ -1364,33 +1385,33 @@
         <v>18</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>39</v>
+        <v>83</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>27</v>
@@ -1399,33 +1420,33 @@
         <v>18</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>39</v>
+        <v>83</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>27</v>
@@ -1434,27 +1455,27 @@
         <v>18</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>16</v>
@@ -1469,19 +1490,19 @@
         <v>18</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
@@ -1548,10 +1569,10 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -1562,7 +1583,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2">
         <v>5000</v>
@@ -1576,10 +1597,10 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
@@ -1587,13 +1608,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
@@ -1601,10 +1622,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2">
         <v>5000</v>
@@ -1615,13 +1636,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
@@ -1629,13 +1650,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
@@ -1643,10 +1664,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2">
         <v>5000</v>
@@ -1657,13 +1678,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D11" t="s">
         <v>28</v>
@@ -1671,13 +1692,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
         <v>28</v>
@@ -1685,10 +1706,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2">
         <v>5000</v>
@@ -1699,13 +1720,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
@@ -1713,13 +1734,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>28</v>
@@ -1727,13 +1748,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>28</v>
@@ -1741,10 +1762,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>22</v>
@@ -1755,10 +1776,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>38</v>
@@ -1769,13 +1790,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>28</v>
@@ -1783,13 +1804,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="C20" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>28</v>
@@ -1797,10 +1818,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="8">
         <v>5000</v>
@@ -1811,13 +1832,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>28</v>
@@ -1825,10 +1846,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>22</v>
@@ -1839,10 +1860,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>22</v>
@@ -1853,10 +1874,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>22</v>
@@ -1876,7 +1897,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1922,7 +1943,7 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>5</v>
@@ -2083,7 +2104,7 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
@@ -2127,10 +2148,10 @@
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
         <v>107</v>
@@ -2159,7 +2180,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -2171,16 +2192,16 @@
         <v>22</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>106</v>
+      <c r="G7" t="s">
+        <v>109</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>22</v>
@@ -2203,7 +2224,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -2215,16 +2236,16 @@
         <v>22</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" t="s">
         <v>106</v>
       </c>
-      <c r="H8" t="s">
-        <v>39</v>
+      <c r="H8" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>22</v>
@@ -2247,7 +2268,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -2259,16 +2280,16 @@
         <v>22</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H9" t="s">
-        <v>39</v>
+      <c r="G9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>22</v>
@@ -2291,7 +2312,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -2303,16 +2324,16 @@
         <v>22</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H10" t="s">
-        <v>39</v>
+      <c r="G10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>22</v>
@@ -2335,7 +2356,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -2347,16 +2368,16 @@
         <v>22</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H11" t="s">
-        <v>39</v>
+        <v>103</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>22</v>
@@ -2379,7 +2400,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -2391,16 +2412,16 @@
         <v>22</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H12" t="s">
-        <v>39</v>
+        <v>103</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>22</v>
@@ -2412,7 +2433,7 @@
         <v>22</v>
       </c>
       <c r="L12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M12" t="s">
         <v>35</v>
@@ -2423,7 +2444,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -2435,16 +2456,16 @@
         <v>22</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H13" t="s">
-        <v>39</v>
+        <v>103</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>22</v>
@@ -2456,7 +2477,7 @@
         <v>22</v>
       </c>
       <c r="L13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M13" t="s">
         <v>35</v>
@@ -2467,7 +2488,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -2479,16 +2500,16 @@
         <v>22</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>106</v>
+      <c r="G14" t="s">
+        <v>115</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>22</v>
@@ -2511,7 +2532,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -2523,16 +2544,16 @@
         <v>22</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H15" t="s">
-        <v>39</v>
+        <v>103</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>22</v>
@@ -2555,7 +2576,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -2567,16 +2588,16 @@
         <v>22</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>109</v>
-      </c>
-      <c r="H16" t="s">
-        <v>39</v>
+        <v>104</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>22</v>
@@ -2599,25 +2620,25 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>22</v>
@@ -2643,25 +2664,25 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>22</v>
@@ -2687,7 +2708,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>16</v>
@@ -2699,13 +2720,13 @@
         <v>27</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H19" t="s">
         <v>22</v>
@@ -2731,7 +2752,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>22</v>
@@ -2743,16 +2764,16 @@
         <v>22</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>22</v>
@@ -2801,10 +2822,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -2813,12 +2834,12 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -2827,35 +2848,35 @@
         <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2903,30 +2924,30 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Loads.xlsx
+++ b/TestData/Loads.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="130">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -336,40 +336,79 @@
     <t>CHN_1222115323</t>
   </si>
   <si>
-    <t>CHN_0101022155</t>
-  </si>
-  <si>
-    <t>CHN_0104041140</t>
-  </si>
-  <si>
-    <t>CHN_0113114059</t>
-  </si>
-  <si>
-    <t>Mexico_0119120548</t>
-  </si>
-  <si>
     <t>CHN_0128022925</t>
   </si>
   <si>
-    <t>Mexico_0129102403</t>
-  </si>
-  <si>
-    <t>CHN_0224121211</t>
-  </si>
-  <si>
     <t>PUN</t>
   </si>
   <si>
-    <t>CHN_0224121827</t>
-  </si>
-  <si>
-    <t>PUN_0224121828</t>
-  </si>
-  <si>
-    <t>CHN_0224123352</t>
-  </si>
-  <si>
-    <t>PUN_0224123353</t>
+    <t>CHN_0407064146</t>
+  </si>
+  <si>
+    <t>PUN_0407064146</t>
+  </si>
+  <si>
+    <t>CHN_0407065609</t>
+  </si>
+  <si>
+    <t>PUN_0407065609</t>
+  </si>
+  <si>
+    <t>CHN_0409112642</t>
+  </si>
+  <si>
+    <t>PUN_0409112643</t>
+  </si>
+  <si>
+    <t>CHN_0409114440</t>
+  </si>
+  <si>
+    <t>PUN_0409114440</t>
+  </si>
+  <si>
+    <t>CHN_0409120743</t>
+  </si>
+  <si>
+    <t>PUN_0409120744</t>
+  </si>
+  <si>
+    <t>Mexico_0412065309</t>
+  </si>
+  <si>
+    <t>PUN_0412065320</t>
+  </si>
+  <si>
+    <t>Mexico_0419023945</t>
+  </si>
+  <si>
+    <t>PUN_0419023946</t>
+  </si>
+  <si>
+    <t>TAB</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>InActivateShippers_TC005</t>
+  </si>
+  <si>
+    <t>Mexico_0426122105</t>
+  </si>
+  <si>
+    <t>ActivateShippers_TC006</t>
+  </si>
+  <si>
+    <t>Mexico_0426123813</t>
+  </si>
+  <si>
+    <t>PUN_0426123814</t>
+  </si>
+  <si>
+    <t>Mexico_0426125455</t>
+  </si>
+  <si>
+    <t>PUN_0426125456</t>
   </si>
 </sst>
 </file>
@@ -414,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -424,6 +463,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -728,22 +770,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="110.140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="7" width="10.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -754,16 +795,19 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -773,11 +817,14 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -787,11 +834,14 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -801,11 +851,14 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -815,11 +868,14 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -829,11 +885,14 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -843,11 +902,14 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -857,11 +919,14 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -871,11 +936,14 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -885,11 +953,14 @@
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -899,11 +970,14 @@
       <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -913,11 +987,14 @@
       <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>78</v>
       </c>
@@ -927,11 +1004,14 @@
       <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>79</v>
       </c>
@@ -941,11 +1021,14 @@
       <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>88</v>
       </c>
@@ -956,10 +1039,13 @@
         <v>9</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>95</v>
       </c>
@@ -970,10 +1056,13 @@
         <v>9</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>95</v>
       </c>
@@ -984,6 +1073,43 @@
         <v>9</v>
       </c>
       <c r="D17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -995,15 +1121,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
     <col min="2" max="10" customWidth="true" width="18.28515625" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
@@ -1114,7 +1238,7 @@
         <v>103</v>
       </c>
       <c r="J3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K3" t="s">
         <v>44</v>
@@ -1149,7 +1273,7 @@
         <v>103</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K4" t="s">
         <v>44</v>
@@ -1184,7 +1308,7 @@
         <v>103</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K5" t="s">
         <v>44</v>
@@ -1219,7 +1343,7 @@
         <v>103</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K6" t="s">
         <v>44</v>
@@ -1254,7 +1378,7 @@
         <v>103</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K7" t="s">
         <v>44</v>
@@ -1289,7 +1413,7 @@
         <v>103</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K8" t="s">
         <v>44</v>
@@ -1324,7 +1448,7 @@
         <v>103</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
         <v>44</v>
@@ -1359,7 +1483,7 @@
         <v>103</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s">
         <v>44</v>
@@ -1394,7 +1518,7 @@
         <v>83</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>44</v>
@@ -1429,7 +1553,7 @@
         <v>83</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>44</v>
@@ -1464,7 +1588,7 @@
         <v>103</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>44</v>
@@ -1499,13 +1623,83 @@
         <v>103</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1894,10 +2088,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2110,10 +2304,10 @@
         <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>22</v>
+        <v>111</v>
+      </c>
+      <c r="H5" t="s">
+        <v>112</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>22</v>
@@ -2154,10 +2348,10 @@
         <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>22</v>
+        <v>111</v>
+      </c>
+      <c r="H6" t="s">
+        <v>112</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>22</v>
@@ -2198,10 +2392,10 @@
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>22</v>
@@ -2242,10 +2436,10 @@
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="H8" t="s">
+        <v>114</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>22</v>
@@ -2286,10 +2480,10 @@
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+      <c r="H9" t="s">
+        <v>116</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>22</v>
@@ -2330,10 +2524,10 @@
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>105</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+      <c r="H10" t="s">
+        <v>116</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>22</v>
@@ -2373,11 +2567,11 @@
       <c r="F11" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>112</v>
+      <c r="G11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" t="s">
+        <v>108</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>22</v>
@@ -2417,11 +2611,11 @@
       <c r="F12" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>112</v>
+      <c r="G12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" t="s">
+        <v>108</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>22</v>
@@ -2461,11 +2655,11 @@
       <c r="F13" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>112</v>
+      <c r="G13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" t="s">
+        <v>108</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>22</v>
@@ -2506,10 +2700,10 @@
         <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H14" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>22</v>
@@ -2553,7 +2747,7 @@
         <v>103</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>22</v>
@@ -2597,7 +2791,7 @@
         <v>104</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>22</v>
@@ -2638,10 +2832,10 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>110</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>22</v>
+        <v>117</v>
+      </c>
+      <c r="H17" t="s">
+        <v>118</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>22</v>
@@ -2682,10 +2876,10 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>108</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>22</v>
+        <v>119</v>
+      </c>
+      <c r="H18" t="s">
+        <v>120</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>22</v>
@@ -2773,7 +2967,7 @@
         <v>103</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>22</v>
@@ -2791,6 +2985,94 @@
         <v>34</v>
       </c>
       <c r="N20" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" t="s">
+        <v>126</v>
+      </c>
+      <c r="H21" t="s">
+        <v>127</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N22" s="7" t="s">
         <v>30</v>
       </c>
     </row>

--- a/TestData/Loads.xlsx
+++ b/TestData/Loads.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CustomizeGrid" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="142">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -393,9 +393,6 @@
     <t>InActivateShippers_TC005</t>
   </si>
   <si>
-    <t>Mexico_0426122105</t>
-  </si>
-  <si>
     <t>ActivateShippers_TC006</t>
   </si>
   <si>
@@ -409,6 +406,45 @@
   </si>
   <si>
     <t>PUN_0426125456</t>
+  </si>
+  <si>
+    <t>InActivateShippers_CarrierUser_TC010</t>
+  </si>
+  <si>
+    <t>Chennai Express LLC</t>
+  </si>
+  <si>
+    <t>Mexico_0427125133</t>
+  </si>
+  <si>
+    <t>PUN_0427125133</t>
+  </si>
+  <si>
+    <t>ActivateShippers_CarrierUser_TC011</t>
+  </si>
+  <si>
+    <t>Mexico_0427010518</t>
+  </si>
+  <si>
+    <t>PUN_0427010518</t>
+  </si>
+  <si>
+    <t>CHN_0430062319</t>
+  </si>
+  <si>
+    <t>PUN_0430062320</t>
+  </si>
+  <si>
+    <t>CHN_0430062932</t>
+  </si>
+  <si>
+    <t>PUN_0430062933</t>
+  </si>
+  <si>
+    <t>CHN_0430064010</t>
+  </si>
+  <si>
+    <t>PUN_0430064010</t>
   </si>
 </sst>
 </file>
@@ -770,9 +806,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1098,7 +1136,7 @@
     </row>
     <row r="19" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>86</v>
@@ -1110,6 +1148,40 @@
         <v>122</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1121,9 +1193,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1668,7 +1742,7 @@
     </row>
     <row r="16" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>45</v>
@@ -1698,6 +1772,76 @@
         <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2088,10 +2232,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2304,10 +2448,10 @@
         <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="H5" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>22</v>
@@ -2348,10 +2492,10 @@
         <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="H6" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>22</v>
@@ -2392,10 +2536,10 @@
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="H7" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>22</v>
@@ -3008,10 +3152,10 @@
         <v>29</v>
       </c>
       <c r="G21" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" t="s">
         <v>126</v>
-      </c>
-      <c r="H21" t="s">
-        <v>127</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>22</v>
@@ -3034,7 +3178,7 @@
     </row>
     <row r="22" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>16</v>
@@ -3052,10 +3196,10 @@
         <v>29</v>
       </c>
       <c r="G22" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" t="s">
         <v>128</v>
-      </c>
-      <c r="H22" t="s">
-        <v>129</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>22</v>
@@ -3073,6 +3217,94 @@
         <v>34</v>
       </c>
       <c r="N22" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" t="s">
+        <v>132</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" t="s">
+        <v>134</v>
+      </c>
+      <c r="H24" t="s">
+        <v>135</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N24" s="7" t="s">
         <v>30</v>
       </c>
     </row>

--- a/TestData/Loads.xlsx
+++ b/TestData/Loads.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="146">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -336,9 +336,6 @@
     <t>CHN_1222115323</t>
   </si>
   <si>
-    <t>CHN_0128022925</t>
-  </si>
-  <si>
     <t>PUN</t>
   </si>
   <si>
@@ -354,12 +351,6 @@
     <t>PUN_0407065609</t>
   </si>
   <si>
-    <t>CHN_0409112642</t>
-  </si>
-  <si>
-    <t>PUN_0409112643</t>
-  </si>
-  <si>
     <t>CHN_0409114440</t>
   </si>
   <si>
@@ -402,12 +393,6 @@
     <t>PUN_0426123814</t>
   </si>
   <si>
-    <t>Mexico_0426125455</t>
-  </si>
-  <si>
-    <t>PUN_0426125456</t>
-  </si>
-  <si>
     <t>InActivateShippers_CarrierUser_TC010</t>
   </si>
   <si>
@@ -435,24 +420,50 @@
     <t>PUN_0430062320</t>
   </si>
   <si>
-    <t>CHN_0430062932</t>
-  </si>
-  <si>
-    <t>PUN_0430062933</t>
-  </si>
-  <si>
     <t>CHN_0430064010</t>
   </si>
   <si>
     <t>PUN_0430064010</t>
+  </si>
+  <si>
+    <t>Mexico_0505123910</t>
+  </si>
+  <si>
+    <t>PUN_0505123911</t>
+  </si>
+  <si>
+    <t>Load Date;Shipper;Shipper Contact;Carrier Name;Status;Commodity</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>AddCommodity_TC001</t>
+  </si>
+  <si>
+    <t>GlobalAdmin_ShipperContacts_TC001</t>
+  </si>
+  <si>
+    <t>GlobalAdmin_InactiveShipperContacts_TC002</t>
+  </si>
+  <si>
+    <t>ChangeP</t>
+  </si>
+  <si>
+    <t>Scoular</t>
+  </si>
+  <si>
+    <t>Boiled Rice</t>
+  </si>
+  <si>
+    <t>GlobalAdmin_activeShipperContacts_TC003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,7 +488,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -485,11 +496,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -500,6 +526,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -806,20 +835,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="110.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="7" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="110.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10" style="7" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -833,7 +862,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -856,7 +885,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -873,7 +902,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -890,7 +919,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -907,7 +936,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -924,7 +953,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -941,7 +970,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -958,7 +987,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -975,7 +1004,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -992,7 +1021,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1009,7 +1038,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1026,7 +1055,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -1043,7 +1072,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>10</v>
@@ -1060,7 +1089,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>10</v>
@@ -1077,7 +1106,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>10</v>
@@ -1094,7 +1123,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>10</v>
@@ -1111,7 +1140,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>10</v>
@@ -1119,7 +1148,7 @@
     </row>
     <row r="18" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>86</v>
@@ -1128,7 +1157,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>10</v>
@@ -1136,7 +1165,7 @@
     </row>
     <row r="19" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>86</v>
@@ -1145,7 +1174,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>10</v>
@@ -1153,7 +1182,7 @@
     </row>
     <row r="20" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>86</v>
@@ -1162,7 +1191,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>10</v>
@@ -1170,7 +1199,7 @@
     </row>
     <row r="21" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>86</v>
@@ -1179,9 +1208,77 @@
         <v>9</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1193,18 +1290,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="2" max="10" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="10" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1312,7 +1409,7 @@
         <v>103</v>
       </c>
       <c r="J3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K3" t="s">
         <v>44</v>
@@ -1347,7 +1444,7 @@
         <v>103</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K4" t="s">
         <v>44</v>
@@ -1382,7 +1479,7 @@
         <v>103</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K5" t="s">
         <v>44</v>
@@ -1417,7 +1514,7 @@
         <v>103</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K6" t="s">
         <v>44</v>
@@ -1452,7 +1549,7 @@
         <v>103</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K7" t="s">
         <v>44</v>
@@ -1487,7 +1584,7 @@
         <v>103</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s">
         <v>44</v>
@@ -1522,7 +1619,7 @@
         <v>103</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
         <v>44</v>
@@ -1557,7 +1654,7 @@
         <v>103</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s">
         <v>44</v>
@@ -1592,7 +1689,7 @@
         <v>83</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>44</v>
@@ -1627,7 +1724,7 @@
         <v>83</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>44</v>
@@ -1662,7 +1759,7 @@
         <v>103</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>44</v>
@@ -1697,7 +1794,7 @@
         <v>103</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>44</v>
@@ -1707,7 +1804,7 @@
     </row>
     <row r="15" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>45</v>
@@ -1734,7 +1831,7 @@
         <v>83</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>44</v>
@@ -1742,7 +1839,7 @@
     </row>
     <row r="16" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>45</v>
@@ -1769,7 +1866,7 @@
         <v>83</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>44</v>
@@ -1777,10 +1874,10 @@
     </row>
     <row r="17" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>16</v>
@@ -1804,7 +1901,7 @@
         <v>83</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>44</v>
@@ -1812,10 +1909,10 @@
     </row>
     <row r="18" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>16</v>
@@ -1839,9 +1936,149 @@
         <v>83</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1861,11 +2098,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2232,18 +2469,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="H20" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="13" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="13" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -2448,10 +2685,10 @@
         <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>22</v>
@@ -2492,10 +2729,10 @@
         <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>22</v>
@@ -2536,10 +2773,10 @@
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>22</v>
@@ -2580,10 +2817,10 @@
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>22</v>
@@ -2624,10 +2861,10 @@
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>22</v>
@@ -2668,10 +2905,10 @@
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>22</v>
@@ -2712,10 +2949,10 @@
         <v>22</v>
       </c>
       <c r="G11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" t="s">
         <v>107</v>
-      </c>
-      <c r="H11" t="s">
-        <v>108</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>22</v>
@@ -2756,10 +2993,10 @@
         <v>22</v>
       </c>
       <c r="G12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" t="s">
         <v>107</v>
-      </c>
-      <c r="H12" t="s">
-        <v>108</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>22</v>
@@ -2800,10 +3037,10 @@
         <v>22</v>
       </c>
       <c r="G13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" t="s">
         <v>107</v>
-      </c>
-      <c r="H13" t="s">
-        <v>108</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>22</v>
@@ -2844,10 +3081,10 @@
         <v>22</v>
       </c>
       <c r="G14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" t="s">
         <v>109</v>
-      </c>
-      <c r="H14" t="s">
-        <v>110</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>22</v>
@@ -2891,7 +3128,7 @@
         <v>103</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>22</v>
@@ -2935,7 +3172,7 @@
         <v>104</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>22</v>
@@ -2976,10 +3213,10 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>22</v>
@@ -3020,10 +3257,10 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>22</v>
@@ -3111,7 +3348,7 @@
         <v>103</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>22</v>
@@ -3134,7 +3371,7 @@
     </row>
     <row r="21" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>16</v>
@@ -3152,10 +3389,10 @@
         <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>22</v>
@@ -3178,7 +3415,7 @@
     </row>
     <row r="22" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>16</v>
@@ -3196,10 +3433,10 @@
         <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="H22" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>22</v>
@@ -3222,7 +3459,7 @@
     </row>
     <row r="23" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>16</v>
@@ -3234,16 +3471,16 @@
         <v>27</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H23" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>22</v>
@@ -3266,7 +3503,7 @@
     </row>
     <row r="24" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>16</v>
@@ -3278,16 +3515,16 @@
         <v>27</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H24" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>22</v>
@@ -3305,6 +3542,182 @@
         <v>34</v>
       </c>
       <c r="N24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N28" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3323,12 +3736,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3409,11 +3822,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
